--- a/experiments/evaluation/llm-seed/bert-base-cased_15/rem-20_remove/rem2/123/word_level_predictions_123.xlsx
+++ b/experiments/evaluation/llm-seed/bert-base-cased_15/rem-20_remove/rem2/123/word_level_predictions_123.xlsx
@@ -814,366 +814,366 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="n">
-        <v>1</v>
-      </c>
-      <c r="B8" t="inlineStr">
+      <c r="A8" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B8" s="2" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="C8" s="2" t="inlineStr">
         <is>
           <t>GEO:</t>
         </is>
       </c>
-      <c r="D8" t="n">
+      <c r="D8" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="E8" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G8" t="b">
-        <v>1</v>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I8" t="b">
-        <v>1</v>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K8" t="b">
-        <v>1</v>
-      </c>
-      <c r="L8" t="inlineStr">
+      <c r="G8" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="n">
-        <v>1</v>
-      </c>
-      <c r="B9" t="inlineStr">
+      <c r="A9" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B9" s="2" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="C9" s="2" t="inlineStr">
         <is>
           <t>You</t>
         </is>
       </c>
-      <c r="D9" t="n">
-        <v>1</v>
-      </c>
-      <c r="E9" t="inlineStr">
+      <c r="D9" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G9" t="b">
-        <v>1</v>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I9" t="b">
-        <v>1</v>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K9" t="b">
-        <v>1</v>
-      </c>
-      <c r="L9" t="inlineStr">
+      <c r="G9" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="n">
-        <v>1</v>
-      </c>
-      <c r="B10" t="inlineStr">
+      <c r="A10" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B10" s="2" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="C10" s="2" t="inlineStr">
         <is>
           <t>are</t>
         </is>
       </c>
-      <c r="D10" t="n">
+      <c r="D10" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="E10" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="F10" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G10" t="b">
-        <v>1</v>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I10" t="b">
-        <v>1</v>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K10" t="b">
-        <v>1</v>
-      </c>
-      <c r="L10" t="inlineStr">
+      <c r="G10" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="n">
-        <v>1</v>
-      </c>
-      <c r="B11" t="inlineStr">
+      <c r="A11" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B11" s="2" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="C11" s="2" t="inlineStr">
         <is>
           <t>in</t>
         </is>
       </c>
-      <c r="D11" t="n">
+      <c r="D11" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="E11" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="F11" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G11" t="b">
-        <v>1</v>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I11" t="b">
-        <v>1</v>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K11" t="b">
-        <v>1</v>
-      </c>
-      <c r="L11" t="inlineStr">
+      <c r="G11" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="n">
-        <v>1</v>
-      </c>
-      <c r="B12" t="inlineStr">
+      <c r="A12" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B12" s="2" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="C12" s="2" t="inlineStr">
         <is>
           <t>a</t>
         </is>
       </c>
-      <c r="D12" t="n">
+      <c r="D12" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="E12" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="F12" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G12" t="b">
-        <v>1</v>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I12" t="b">
-        <v>1</v>
-      </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K12" t="b">
-        <v>1</v>
-      </c>
-      <c r="L12" t="inlineStr">
+      <c r="G12" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="n">
-        <v>1</v>
-      </c>
-      <c r="B13" t="inlineStr">
+      <c r="A13" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B13" s="2" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="C13" s="2" t="inlineStr">
         <is>
           <t>Warning</t>
         </is>
       </c>
-      <c r="D13" t="n">
+      <c r="D13" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="E13" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="F13" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G13" t="b">
-        <v>1</v>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I13" t="b">
-        <v>1</v>
-      </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K13" t="b">
-        <v>1</v>
-      </c>
-      <c r="L13" t="inlineStr">
+      <c r="G13" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="n">
-        <v>1</v>
-      </c>
-      <c r="B14" t="inlineStr">
+      <c r="A14" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B14" s="2" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="C14" s="2" t="inlineStr">
         <is>
           <t>Zone</t>
         </is>
       </c>
-      <c r="D14" t="n">
+      <c r="D14" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="E14" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G14" t="b">
-        <v>1</v>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I14" t="b">
-        <v>1</v>
-      </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K14" t="b">
-        <v>1</v>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_I_as_E</t>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -1201,7 +1201,7 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>O</t>
         </is>
       </c>
       <c r="G15" s="2" t="b">
@@ -1225,7 +1225,7 @@
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Missed_I-Event</t>
         </is>
       </c>
     </row>
@@ -1409,7 +1409,7 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G19" s="2" t="b">
@@ -1433,7 +1433,7 @@
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -1461,7 +1461,7 @@
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G20" s="2" t="b">
@@ -1485,7 +1485,7 @@
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -2634,208 +2634,208 @@
       </c>
     </row>
     <row r="43">
-      <c r="A43" t="n">
+      <c r="A43" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="B43" t="inlineStr">
+      <c r="B43" s="2" t="inlineStr">
         <is>
           <t>Incompatible firmware version Go to Profile &gt; Settings to update firmware .</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr">
+      <c r="C43" s="2" t="inlineStr">
         <is>
           <t>Settings</t>
         </is>
       </c>
-      <c r="D43" t="n">
+      <c r="D43" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G43" t="b">
-        <v>1</v>
-      </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I43" t="b">
-        <v>1</v>
-      </c>
-      <c r="J43" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K43" t="b">
-        <v>1</v>
-      </c>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_I_as_B</t>
+      <c r="E43" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F43" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G43" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H43" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I43" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J43" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K43" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L43" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="44">
-      <c r="A44" t="n">
+      <c r="A44" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="B44" t="inlineStr">
+      <c r="B44" s="2" t="inlineStr">
         <is>
           <t>Incompatible firmware version Go to Profile &gt; Settings to update firmware .</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr">
+      <c r="C44" s="2" t="inlineStr">
         <is>
           <t>to</t>
         </is>
       </c>
-      <c r="D44" t="n">
+      <c r="D44" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G44" t="b">
-        <v>1</v>
-      </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I44" t="b">
-        <v>1</v>
-      </c>
-      <c r="J44" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K44" t="b">
-        <v>1</v>
-      </c>
-      <c r="L44" t="inlineStr">
+      <c r="E44" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F44" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G44" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H44" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I44" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J44" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K44" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L44" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="45">
-      <c r="A45" t="n">
+      <c r="A45" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="B45" t="inlineStr">
+      <c r="B45" s="2" t="inlineStr">
         <is>
           <t>Incompatible firmware version Go to Profile &gt; Settings to update firmware .</t>
         </is>
       </c>
-      <c r="C45" t="inlineStr">
+      <c r="C45" s="2" t="inlineStr">
         <is>
           <t>update</t>
         </is>
       </c>
-      <c r="D45" t="n">
+      <c r="D45" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G45" t="b">
-        <v>1</v>
-      </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I45" t="b">
-        <v>1</v>
-      </c>
-      <c r="J45" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K45" t="b">
-        <v>1</v>
-      </c>
-      <c r="L45" t="inlineStr">
+      <c r="E45" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F45" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G45" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H45" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I45" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J45" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K45" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L45" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="46">
-      <c r="A46" t="n">
+      <c r="A46" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="B46" t="inlineStr">
+      <c r="B46" s="2" t="inlineStr">
         <is>
           <t>Incompatible firmware version Go to Profile &gt; Settings to update firmware .</t>
         </is>
       </c>
-      <c r="C46" t="inlineStr">
+      <c r="C46" s="2" t="inlineStr">
         <is>
           <t>firmware</t>
         </is>
       </c>
-      <c r="D46" t="n">
+      <c r="D46" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="E46" t="inlineStr">
+      <c r="E46" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F46" t="inlineStr">
+      <c r="F46" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="G46" t="b">
-        <v>1</v>
-      </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I46" t="b">
-        <v>1</v>
-      </c>
-      <c r="J46" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K46" t="b">
-        <v>1</v>
-      </c>
-      <c r="L46" t="inlineStr">
+      <c r="G46" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H46" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I46" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J46" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K46" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L46" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -4581,7 +4581,7 @@
       </c>
       <c r="F80" s="2" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>B-NonEvent</t>
         </is>
       </c>
       <c r="G80" s="2" t="b">
@@ -4605,161 +4605,161 @@
       </c>
       <c r="L80" s="2" t="inlineStr">
         <is>
-          <t>Missed_E-Event</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
     <row r="81">
-      <c r="A81" s="2" t="n">
+      <c r="A81" t="n">
         <v>8</v>
       </c>
-      <c r="B81" s="2" t="inlineStr">
+      <c r="B81" t="inlineStr">
         <is>
           <t>Strong Interference Now Fly with caution .</t>
         </is>
       </c>
-      <c r="C81" s="2" t="inlineStr">
+      <c r="C81" t="inlineStr">
         <is>
           <t>Fly</t>
         </is>
       </c>
-      <c r="D81" s="2" t="n">
+      <c r="D81" t="n">
         <v>3</v>
       </c>
-      <c r="E81" s="2" t="inlineStr">
+      <c r="E81" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F81" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G81" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H81" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I81" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J81" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K81" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L81" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_B_as_I</t>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G81" t="b">
+        <v>1</v>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I81" t="b">
+        <v>1</v>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K81" t="b">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="82">
-      <c r="A82" s="2" t="n">
+      <c r="A82" t="n">
         <v>8</v>
       </c>
-      <c r="B82" s="2" t="inlineStr">
+      <c r="B82" t="inlineStr">
         <is>
           <t>Strong Interference Now Fly with caution .</t>
         </is>
       </c>
-      <c r="C82" s="2" t="inlineStr">
+      <c r="C82" t="inlineStr">
         <is>
           <t>with</t>
         </is>
       </c>
-      <c r="D82" s="2" t="n">
+      <c r="D82" t="n">
         <v>4</v>
       </c>
-      <c r="E82" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F82" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G82" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H82" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I82" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J82" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K82" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L82" s="2" t="inlineStr">
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G82" t="b">
+        <v>1</v>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I82" t="b">
+        <v>1</v>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K82" t="b">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="83">
-      <c r="A83" s="2" t="n">
+      <c r="A83" t="n">
         <v>8</v>
       </c>
-      <c r="B83" s="2" t="inlineStr">
+      <c r="B83" t="inlineStr">
         <is>
           <t>Strong Interference Now Fly with caution .</t>
         </is>
       </c>
-      <c r="C83" s="2" t="inlineStr">
+      <c r="C83" t="inlineStr">
         <is>
           <t>caution</t>
         </is>
       </c>
-      <c r="D83" s="2" t="n">
+      <c r="D83" t="n">
         <v>5</v>
       </c>
-      <c r="E83" s="2" t="inlineStr">
+      <c r="E83" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F83" s="2" t="inlineStr">
+      <c r="F83" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="G83" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H83" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I83" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J83" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K83" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L83" s="2" t="inlineStr">
+      <c r="G83" t="b">
+        <v>1</v>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I83" t="b">
+        <v>1</v>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K83" t="b">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -10642,158 +10642,158 @@
       </c>
     </row>
     <row r="197">
-      <c r="A197" t="n">
+      <c r="A197" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="B197" t="inlineStr">
+      <c r="B197" s="2" t="inlineStr">
         <is>
           <t>Running Flight Simulator Restart aircraft to take off .</t>
         </is>
       </c>
-      <c r="C197" t="inlineStr">
+      <c r="C197" s="2" t="inlineStr">
         <is>
           <t>Running</t>
         </is>
       </c>
-      <c r="D197" t="n">
+      <c r="D197" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="E197" t="inlineStr">
+      <c r="E197" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F197" t="inlineStr">
+      <c r="F197" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G197" t="b">
-        <v>1</v>
-      </c>
-      <c r="H197" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I197" t="b">
-        <v>1</v>
-      </c>
-      <c r="J197" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K197" t="b">
-        <v>1</v>
-      </c>
-      <c r="L197" t="inlineStr">
+      <c r="G197" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H197" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I197" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J197" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K197" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L197" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="198">
-      <c r="A198" t="n">
+      <c r="A198" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="B198" t="inlineStr">
+      <c r="B198" s="2" t="inlineStr">
         <is>
           <t>Running Flight Simulator Restart aircraft to take off .</t>
         </is>
       </c>
-      <c r="C198" t="inlineStr">
+      <c r="C198" s="2" t="inlineStr">
         <is>
           <t>Flight</t>
         </is>
       </c>
-      <c r="D198" t="n">
-        <v>1</v>
-      </c>
-      <c r="E198" t="inlineStr">
+      <c r="D198" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E198" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F198" t="inlineStr">
+      <c r="F198" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G198" t="b">
-        <v>1</v>
-      </c>
-      <c r="H198" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I198" t="b">
-        <v>1</v>
-      </c>
-      <c r="J198" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K198" t="b">
-        <v>1</v>
-      </c>
-      <c r="L198" t="inlineStr">
+      <c r="G198" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H198" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I198" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J198" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K198" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L198" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="199">
-      <c r="A199" t="n">
+      <c r="A199" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="B199" t="inlineStr">
+      <c r="B199" s="2" t="inlineStr">
         <is>
           <t>Running Flight Simulator Restart aircraft to take off .</t>
         </is>
       </c>
-      <c r="C199" t="inlineStr">
+      <c r="C199" s="2" t="inlineStr">
         <is>
           <t>Simulator</t>
         </is>
       </c>
-      <c r="D199" t="n">
+      <c r="D199" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="E199" t="inlineStr">
+      <c r="E199" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F199" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G199" t="b">
-        <v>1</v>
-      </c>
-      <c r="H199" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I199" t="b">
-        <v>1</v>
-      </c>
-      <c r="J199" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K199" t="b">
-        <v>1</v>
-      </c>
-      <c r="L199" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F199" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G199" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H199" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I199" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J199" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K199" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L199" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_E_as_I</t>
         </is>
       </c>
     </row>
@@ -11289,7 +11289,7 @@
       </c>
       <c r="F209" s="2" t="inlineStr">
         <is>
-          <t>B-NonEvent</t>
+          <t>B-Event</t>
         </is>
       </c>
       <c r="G209" s="2" t="b">
@@ -11301,11 +11301,11 @@
         </is>
       </c>
       <c r="I209" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J209" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K209" s="2" t="b">
@@ -11313,7 +11313,7 @@
       </c>
       <c r="L209" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -11353,11 +11353,11 @@
         </is>
       </c>
       <c r="I210" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J210" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K210" s="2" t="b">
@@ -11405,11 +11405,11 @@
         </is>
       </c>
       <c r="I211" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J211" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K211" s="2" t="b">
@@ -11457,11 +11457,11 @@
         </is>
       </c>
       <c r="I212" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J212" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K212" s="2" t="b">
@@ -11509,11 +11509,11 @@
         </is>
       </c>
       <c r="I213" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J213" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K213" s="2" t="b">
@@ -11561,11 +11561,11 @@
         </is>
       </c>
       <c r="I214" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J214" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K214" s="2" t="b">
@@ -11613,11 +11613,11 @@
         </is>
       </c>
       <c r="I215" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J215" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K215" s="2" t="b">
@@ -11665,11 +11665,11 @@
         </is>
       </c>
       <c r="I216" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J216" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K216" s="2" t="b">
@@ -11717,11 +11717,11 @@
         </is>
       </c>
       <c r="I217" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J217" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K217" s="2" t="b">
@@ -11757,7 +11757,7 @@
       </c>
       <c r="F218" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G218" s="2" t="b">
@@ -11769,11 +11769,11 @@
         </is>
       </c>
       <c r="I218" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J218" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K218" s="2" t="b">
@@ -11781,7 +11781,7 @@
       </c>
       <c r="L218" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -11809,7 +11809,7 @@
       </c>
       <c r="F219" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G219" s="2" t="b">
@@ -11821,11 +11821,11 @@
         </is>
       </c>
       <c r="I219" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J219" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K219" s="2" t="b">
@@ -11833,7 +11833,7 @@
       </c>
       <c r="L219" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -11861,7 +11861,7 @@
       </c>
       <c r="F220" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G220" s="2" t="b">
@@ -11873,11 +11873,11 @@
         </is>
       </c>
       <c r="I220" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J220" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K220" s="2" t="b">
@@ -11885,7 +11885,7 @@
       </c>
       <c r="L220" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -11913,7 +11913,7 @@
       </c>
       <c r="F221" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G221" s="2" t="b">
@@ -11925,11 +11925,11 @@
         </is>
       </c>
       <c r="I221" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J221" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K221" s="2" t="b">
@@ -11937,7 +11937,7 @@
       </c>
       <c r="L221" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -11965,7 +11965,7 @@
       </c>
       <c r="F222" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G222" s="2" t="b">
@@ -11977,11 +11977,11 @@
         </is>
       </c>
       <c r="I222" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J222" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K222" s="2" t="b">
@@ -11989,7 +11989,7 @@
       </c>
       <c r="L222" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -12029,11 +12029,11 @@
         </is>
       </c>
       <c r="I223" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J223" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K223" s="2" t="b">
@@ -12069,7 +12069,7 @@
       </c>
       <c r="F224" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G224" s="2" t="b">
@@ -12081,11 +12081,11 @@
         </is>
       </c>
       <c r="I224" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J224" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K224" s="2" t="b">
@@ -12093,7 +12093,7 @@
       </c>
       <c r="L224" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -12121,7 +12121,7 @@
       </c>
       <c r="F225" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G225" s="2" t="b">
@@ -12133,11 +12133,11 @@
         </is>
       </c>
       <c r="I225" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J225" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K225" s="2" t="b">
@@ -12145,7 +12145,7 @@
       </c>
       <c r="L225" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -12173,7 +12173,7 @@
       </c>
       <c r="F226" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G226" s="2" t="b">
@@ -12185,11 +12185,11 @@
         </is>
       </c>
       <c r="I226" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J226" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K226" s="2" t="b">
@@ -12197,7 +12197,7 @@
       </c>
       <c r="L226" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -12225,7 +12225,7 @@
       </c>
       <c r="F227" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G227" s="2" t="b">
@@ -12237,11 +12237,11 @@
         </is>
       </c>
       <c r="I227" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J227" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K227" s="2" t="b">
@@ -12249,7 +12249,7 @@
       </c>
       <c r="L227" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -12289,11 +12289,11 @@
         </is>
       </c>
       <c r="I228" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J228" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K228" s="2" t="b">
@@ -18026,366 +18026,366 @@
       </c>
     </row>
     <row r="339">
-      <c r="A339" t="n">
+      <c r="A339" s="2" t="n">
         <v>30</v>
       </c>
-      <c r="B339" t="inlineStr">
+      <c r="B339" s="2" t="inlineStr">
         <is>
           <t>Unknown Error Cannot Takeoff Contact DJI support .</t>
         </is>
       </c>
-      <c r="C339" t="inlineStr">
+      <c r="C339" s="2" t="inlineStr">
         <is>
           <t>Unknown</t>
         </is>
       </c>
-      <c r="D339" t="n">
+      <c r="D339" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="E339" t="inlineStr">
+      <c r="E339" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F339" t="inlineStr">
+      <c r="F339" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G339" t="b">
-        <v>1</v>
-      </c>
-      <c r="H339" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I339" t="b">
-        <v>1</v>
-      </c>
-      <c r="J339" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K339" t="b">
-        <v>1</v>
-      </c>
-      <c r="L339" t="inlineStr">
+      <c r="G339" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H339" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I339" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J339" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K339" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L339" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="340">
-      <c r="A340" t="n">
+      <c r="A340" s="2" t="n">
         <v>30</v>
       </c>
-      <c r="B340" t="inlineStr">
+      <c r="B340" s="2" t="inlineStr">
         <is>
           <t>Unknown Error Cannot Takeoff Contact DJI support .</t>
         </is>
       </c>
-      <c r="C340" t="inlineStr">
+      <c r="C340" s="2" t="inlineStr">
         <is>
           <t>Error</t>
         </is>
       </c>
-      <c r="D340" t="n">
-        <v>1</v>
-      </c>
-      <c r="E340" t="inlineStr">
+      <c r="D340" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E340" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F340" t="inlineStr">
+      <c r="F340" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G340" t="b">
-        <v>1</v>
-      </c>
-      <c r="H340" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I340" t="b">
-        <v>1</v>
-      </c>
-      <c r="J340" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K340" t="b">
-        <v>1</v>
-      </c>
-      <c r="L340" t="inlineStr">
+      <c r="G340" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H340" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I340" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J340" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K340" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L340" s="2" t="inlineStr">
         <is>
           <t>Wrong_Tag_E_as_I</t>
         </is>
       </c>
     </row>
     <row r="341">
-      <c r="A341" t="n">
+      <c r="A341" s="2" t="n">
         <v>30</v>
       </c>
-      <c r="B341" t="inlineStr">
+      <c r="B341" s="2" t="inlineStr">
         <is>
           <t>Unknown Error Cannot Takeoff Contact DJI support .</t>
         </is>
       </c>
-      <c r="C341" t="inlineStr">
+      <c r="C341" s="2" t="inlineStr">
         <is>
           <t>Cannot</t>
         </is>
       </c>
-      <c r="D341" t="n">
+      <c r="D341" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="E341" t="inlineStr">
+      <c r="E341" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F341" t="inlineStr">
+      <c r="F341" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G341" t="b">
-        <v>1</v>
-      </c>
-      <c r="H341" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I341" t="b">
-        <v>1</v>
-      </c>
-      <c r="J341" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K341" t="b">
-        <v>1</v>
-      </c>
-      <c r="L341" t="inlineStr">
+      <c r="G341" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H341" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I341" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J341" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K341" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L341" s="2" t="inlineStr">
         <is>
           <t>Wrong_Tag_B_as_I</t>
         </is>
       </c>
     </row>
     <row r="342">
-      <c r="A342" t="n">
+      <c r="A342" s="2" t="n">
         <v>30</v>
       </c>
-      <c r="B342" t="inlineStr">
+      <c r="B342" s="2" t="inlineStr">
         <is>
           <t>Unknown Error Cannot Takeoff Contact DJI support .</t>
         </is>
       </c>
-      <c r="C342" t="inlineStr">
+      <c r="C342" s="2" t="inlineStr">
         <is>
           <t>Takeoff</t>
         </is>
       </c>
-      <c r="D342" t="n">
+      <c r="D342" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="E342" t="inlineStr">
+      <c r="E342" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F342" t="inlineStr">
+      <c r="F342" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G342" t="b">
-        <v>1</v>
-      </c>
-      <c r="H342" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I342" t="b">
-        <v>1</v>
-      </c>
-      <c r="J342" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K342" t="b">
-        <v>1</v>
-      </c>
-      <c r="L342" t="inlineStr">
+      <c r="G342" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H342" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I342" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J342" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K342" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L342" s="2" t="inlineStr">
         <is>
           <t>Wrong_Tag_E_as_I</t>
         </is>
       </c>
     </row>
     <row r="343">
-      <c r="A343" s="2" t="n">
+      <c r="A343" t="n">
         <v>30</v>
       </c>
-      <c r="B343" s="2" t="inlineStr">
+      <c r="B343" t="inlineStr">
         <is>
           <t>Unknown Error Cannot Takeoff Contact DJI support .</t>
         </is>
       </c>
-      <c r="C343" s="2" t="inlineStr">
+      <c r="C343" t="inlineStr">
         <is>
           <t>Contact</t>
         </is>
       </c>
-      <c r="D343" s="2" t="n">
+      <c r="D343" t="n">
         <v>4</v>
       </c>
-      <c r="E343" s="2" t="inlineStr">
+      <c r="E343" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F343" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G343" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H343" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I343" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J343" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K343" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L343" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="F343" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G343" t="b">
+        <v>1</v>
+      </c>
+      <c r="H343" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I343" t="b">
+        <v>1</v>
+      </c>
+      <c r="J343" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K343" t="b">
+        <v>1</v>
+      </c>
+      <c r="L343" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="344">
-      <c r="A344" s="2" t="n">
+      <c r="A344" t="n">
         <v>30</v>
       </c>
-      <c r="B344" s="2" t="inlineStr">
+      <c r="B344" t="inlineStr">
         <is>
           <t>Unknown Error Cannot Takeoff Contact DJI support .</t>
         </is>
       </c>
-      <c r="C344" s="2" t="inlineStr">
+      <c r="C344" t="inlineStr">
         <is>
           <t>DJI</t>
         </is>
       </c>
-      <c r="D344" s="2" t="n">
+      <c r="D344" t="n">
         <v>5</v>
       </c>
-      <c r="E344" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F344" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G344" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H344" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I344" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J344" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K344" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L344" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="E344" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F344" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G344" t="b">
+        <v>1</v>
+      </c>
+      <c r="H344" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I344" t="b">
+        <v>1</v>
+      </c>
+      <c r="J344" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K344" t="b">
+        <v>1</v>
+      </c>
+      <c r="L344" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="345">
-      <c r="A345" s="2" t="n">
+      <c r="A345" t="n">
         <v>30</v>
       </c>
-      <c r="B345" s="2" t="inlineStr">
+      <c r="B345" t="inlineStr">
         <is>
           <t>Unknown Error Cannot Takeoff Contact DJI support .</t>
         </is>
       </c>
-      <c r="C345" s="2" t="inlineStr">
+      <c r="C345" t="inlineStr">
         <is>
           <t>support</t>
         </is>
       </c>
-      <c r="D345" s="2" t="n">
+      <c r="D345" t="n">
         <v>6</v>
       </c>
-      <c r="E345" s="2" t="inlineStr">
+      <c r="E345" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F345" s="2" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G345" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H345" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I345" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J345" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K345" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L345" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="F345" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G345" t="b">
+        <v>1</v>
+      </c>
+      <c r="H345" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I345" t="b">
+        <v>1</v>
+      </c>
+      <c r="J345" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K345" t="b">
+        <v>1</v>
+      </c>
+      <c r="L345" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -25878,366 +25878,366 @@
       </c>
     </row>
     <row r="490">
-      <c r="A490" s="2" t="n">
+      <c r="A490" t="n">
         <v>45</v>
       </c>
-      <c r="B490" s="2" t="inlineStr">
+      <c r="B490" t="inlineStr">
         <is>
           <t>SD card write speed is too slow Not suitable for shooting a 4K video .</t>
         </is>
       </c>
-      <c r="C490" s="2" t="inlineStr">
+      <c r="C490" t="inlineStr">
         <is>
           <t>Not</t>
         </is>
       </c>
-      <c r="D490" s="2" t="n">
+      <c r="D490" t="n">
         <v>7</v>
       </c>
-      <c r="E490" s="2" t="inlineStr">
+      <c r="E490" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F490" s="2" t="inlineStr">
-        <is>
-          <t>B-Event</t>
-        </is>
-      </c>
-      <c r="G490" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H490" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I490" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J490" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K490" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L490" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="F490" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G490" t="b">
+        <v>1</v>
+      </c>
+      <c r="H490" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I490" t="b">
+        <v>1</v>
+      </c>
+      <c r="J490" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K490" t="b">
+        <v>1</v>
+      </c>
+      <c r="L490" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="491">
-      <c r="A491" s="2" t="n">
+      <c r="A491" t="n">
         <v>45</v>
       </c>
-      <c r="B491" s="2" t="inlineStr">
+      <c r="B491" t="inlineStr">
         <is>
           <t>SD card write speed is too slow Not suitable for shooting a 4K video .</t>
         </is>
       </c>
-      <c r="C491" s="2" t="inlineStr">
+      <c r="C491" t="inlineStr">
         <is>
           <t>suitable</t>
         </is>
       </c>
-      <c r="D491" s="2" t="n">
+      <c r="D491" t="n">
         <v>8</v>
       </c>
-      <c r="E491" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F491" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G491" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H491" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I491" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J491" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K491" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L491" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="E491" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F491" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G491" t="b">
+        <v>1</v>
+      </c>
+      <c r="H491" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I491" t="b">
+        <v>1</v>
+      </c>
+      <c r="J491" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K491" t="b">
+        <v>1</v>
+      </c>
+      <c r="L491" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="492">
-      <c r="A492" s="2" t="n">
+      <c r="A492" t="n">
         <v>45</v>
       </c>
-      <c r="B492" s="2" t="inlineStr">
+      <c r="B492" t="inlineStr">
         <is>
           <t>SD card write speed is too slow Not suitable for shooting a 4K video .</t>
         </is>
       </c>
-      <c r="C492" s="2" t="inlineStr">
+      <c r="C492" t="inlineStr">
         <is>
           <t>for</t>
         </is>
       </c>
-      <c r="D492" s="2" t="n">
+      <c r="D492" t="n">
         <v>9</v>
       </c>
-      <c r="E492" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F492" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G492" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H492" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I492" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J492" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K492" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L492" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="E492" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F492" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G492" t="b">
+        <v>1</v>
+      </c>
+      <c r="H492" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I492" t="b">
+        <v>1</v>
+      </c>
+      <c r="J492" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K492" t="b">
+        <v>1</v>
+      </c>
+      <c r="L492" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="493">
-      <c r="A493" s="2" t="n">
+      <c r="A493" t="n">
         <v>45</v>
       </c>
-      <c r="B493" s="2" t="inlineStr">
+      <c r="B493" t="inlineStr">
         <is>
           <t>SD card write speed is too slow Not suitable for shooting a 4K video .</t>
         </is>
       </c>
-      <c r="C493" s="2" t="inlineStr">
+      <c r="C493" t="inlineStr">
         <is>
           <t>shooting</t>
         </is>
       </c>
-      <c r="D493" s="2" t="n">
+      <c r="D493" t="n">
         <v>10</v>
       </c>
-      <c r="E493" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F493" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G493" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H493" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I493" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J493" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K493" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L493" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="E493" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F493" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G493" t="b">
+        <v>1</v>
+      </c>
+      <c r="H493" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I493" t="b">
+        <v>1</v>
+      </c>
+      <c r="J493" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K493" t="b">
+        <v>1</v>
+      </c>
+      <c r="L493" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="494">
-      <c r="A494" s="2" t="n">
+      <c r="A494" t="n">
         <v>45</v>
       </c>
-      <c r="B494" s="2" t="inlineStr">
+      <c r="B494" t="inlineStr">
         <is>
           <t>SD card write speed is too slow Not suitable for shooting a 4K video .</t>
         </is>
       </c>
-      <c r="C494" s="2" t="inlineStr">
+      <c r="C494" t="inlineStr">
         <is>
           <t>a</t>
         </is>
       </c>
-      <c r="D494" s="2" t="n">
+      <c r="D494" t="n">
         <v>11</v>
       </c>
-      <c r="E494" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F494" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G494" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H494" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I494" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J494" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K494" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L494" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="E494" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F494" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G494" t="b">
+        <v>1</v>
+      </c>
+      <c r="H494" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I494" t="b">
+        <v>1</v>
+      </c>
+      <c r="J494" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K494" t="b">
+        <v>1</v>
+      </c>
+      <c r="L494" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="495">
-      <c r="A495" s="2" t="n">
+      <c r="A495" t="n">
         <v>45</v>
       </c>
-      <c r="B495" s="2" t="inlineStr">
+      <c r="B495" t="inlineStr">
         <is>
           <t>SD card write speed is too slow Not suitable for shooting a 4K video .</t>
         </is>
       </c>
-      <c r="C495" s="2" t="inlineStr">
+      <c r="C495" t="inlineStr">
         <is>
           <t>4K</t>
         </is>
       </c>
-      <c r="D495" s="2" t="n">
+      <c r="D495" t="n">
         <v>12</v>
       </c>
-      <c r="E495" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F495" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G495" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H495" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I495" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J495" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K495" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L495" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="E495" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F495" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G495" t="b">
+        <v>1</v>
+      </c>
+      <c r="H495" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I495" t="b">
+        <v>1</v>
+      </c>
+      <c r="J495" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K495" t="b">
+        <v>1</v>
+      </c>
+      <c r="L495" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="496">
-      <c r="A496" s="2" t="n">
+      <c r="A496" t="n">
         <v>45</v>
       </c>
-      <c r="B496" s="2" t="inlineStr">
+      <c r="B496" t="inlineStr">
         <is>
           <t>SD card write speed is too slow Not suitable for shooting a 4K video .</t>
         </is>
       </c>
-      <c r="C496" s="2" t="inlineStr">
+      <c r="C496" t="inlineStr">
         <is>
           <t>video</t>
         </is>
       </c>
-      <c r="D496" s="2" t="n">
+      <c r="D496" t="n">
         <v>13</v>
       </c>
-      <c r="E496" s="2" t="inlineStr">
+      <c r="E496" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F496" s="2" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G496" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H496" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I496" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J496" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K496" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L496" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="F496" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G496" t="b">
+        <v>1</v>
+      </c>
+      <c r="H496" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I496" t="b">
+        <v>1</v>
+      </c>
+      <c r="J496" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K496" t="b">
+        <v>1</v>
+      </c>
+      <c r="L496" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>

--- a/experiments/evaluation/llm-seed/bert-base-cased_15/rem-20_remove/rem2/123/word_level_predictions_123.xlsx
+++ b/experiments/evaluation/llm-seed/bert-base-cased_15/rem-20_remove/rem2/123/word_level_predictions_123.xlsx
@@ -814,366 +814,366 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B8" s="2" t="inlineStr">
+      <c r="A8" t="n">
+        <v>1</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
         </is>
       </c>
-      <c r="C8" s="2" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>GEO:</t>
         </is>
       </c>
-      <c r="D8" s="2" t="n">
+      <c r="D8" t="n">
         <v>0</v>
       </c>
-      <c r="E8" s="2" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F8" s="2" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G8" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
+      <c r="G8" t="b">
+        <v>1</v>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I8" t="b">
+        <v>1</v>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K8" t="b">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B9" s="2" t="inlineStr">
+      <c r="A9" t="n">
+        <v>1</v>
+      </c>
+      <c r="B9" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
         </is>
       </c>
-      <c r="C9" s="2" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>You</t>
         </is>
       </c>
-      <c r="D9" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
+      <c r="D9" t="n">
+        <v>1</v>
+      </c>
+      <c r="E9" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F9" s="2" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G9" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
+      <c r="G9" t="b">
+        <v>1</v>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I9" t="b">
+        <v>1</v>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K9" t="b">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B10" s="2" t="inlineStr">
+      <c r="A10" t="n">
+        <v>1</v>
+      </c>
+      <c r="B10" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
+      <c r="C10" t="inlineStr">
         <is>
           <t>are</t>
         </is>
       </c>
-      <c r="D10" s="2" t="n">
+      <c r="D10" t="n">
         <v>2</v>
       </c>
-      <c r="E10" s="2" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F10" s="2" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G10" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
+      <c r="G10" t="b">
+        <v>1</v>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I10" t="b">
+        <v>1</v>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K10" t="b">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B11" s="2" t="inlineStr">
+      <c r="A11" t="n">
+        <v>1</v>
+      </c>
+      <c r="B11" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
         </is>
       </c>
-      <c r="C11" s="2" t="inlineStr">
+      <c r="C11" t="inlineStr">
         <is>
           <t>in</t>
         </is>
       </c>
-      <c r="D11" s="2" t="n">
+      <c r="D11" t="n">
         <v>3</v>
       </c>
-      <c r="E11" s="2" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F11" s="2" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G11" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L11" s="2" t="inlineStr">
+      <c r="G11" t="b">
+        <v>1</v>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I11" t="b">
+        <v>1</v>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K11" t="b">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B12" s="2" t="inlineStr">
+      <c r="A12" t="n">
+        <v>1</v>
+      </c>
+      <c r="B12" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
+      <c r="C12" t="inlineStr">
         <is>
           <t>a</t>
         </is>
       </c>
-      <c r="D12" s="2" t="n">
+      <c r="D12" t="n">
         <v>4</v>
       </c>
-      <c r="E12" s="2" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F12" s="2" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G12" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L12" s="2" t="inlineStr">
+      <c r="G12" t="b">
+        <v>1</v>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I12" t="b">
+        <v>1</v>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K12" t="b">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B13" s="2" t="inlineStr">
+      <c r="A13" t="n">
+        <v>1</v>
+      </c>
+      <c r="B13" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
         </is>
       </c>
-      <c r="C13" s="2" t="inlineStr">
+      <c r="C13" t="inlineStr">
         <is>
           <t>Warning</t>
         </is>
       </c>
-      <c r="D13" s="2" t="n">
+      <c r="D13" t="n">
         <v>5</v>
       </c>
-      <c r="E13" s="2" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F13" s="2" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G13" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K13" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L13" s="2" t="inlineStr">
+      <c r="G13" t="b">
+        <v>1</v>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I13" t="b">
+        <v>1</v>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K13" t="b">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B14" s="2" t="inlineStr">
+      <c r="A14" t="n">
+        <v>1</v>
+      </c>
+      <c r="B14" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
         </is>
       </c>
-      <c r="C14" s="2" t="inlineStr">
+      <c r="C14" t="inlineStr">
         <is>
           <t>Zone</t>
         </is>
       </c>
-      <c r="D14" s="2" t="n">
+      <c r="D14" t="n">
         <v>6</v>
       </c>
-      <c r="E14" s="2" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L14" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G14" t="b">
+        <v>1</v>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I14" t="b">
+        <v>1</v>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K14" t="b">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_I_as_E</t>
         </is>
       </c>
     </row>
@@ -1201,7 +1201,7 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G15" s="2" t="b">
@@ -1225,7 +1225,7 @@
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>Missed_I-Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -1409,7 +1409,7 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G19" s="2" t="b">
@@ -1433,7 +1433,7 @@
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -1461,7 +1461,7 @@
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G20" s="2" t="b">
@@ -1485,7 +1485,7 @@
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -2634,208 +2634,208 @@
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="2" t="n">
+      <c r="A43" t="n">
         <v>3</v>
       </c>
-      <c r="B43" s="2" t="inlineStr">
+      <c r="B43" t="inlineStr">
         <is>
           <t>Incompatible firmware version Go to Profile &gt; Settings to update firmware .</t>
         </is>
       </c>
-      <c r="C43" s="2" t="inlineStr">
+      <c r="C43" t="inlineStr">
         <is>
           <t>Settings</t>
         </is>
       </c>
-      <c r="D43" s="2" t="n">
+      <c r="D43" t="n">
         <v>7</v>
       </c>
-      <c r="E43" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F43" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G43" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H43" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I43" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J43" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K43" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L43" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G43" t="b">
+        <v>1</v>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I43" t="b">
+        <v>1</v>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K43" t="b">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_I_as_B</t>
         </is>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="2" t="n">
+      <c r="A44" t="n">
         <v>3</v>
       </c>
-      <c r="B44" s="2" t="inlineStr">
+      <c r="B44" t="inlineStr">
         <is>
           <t>Incompatible firmware version Go to Profile &gt; Settings to update firmware .</t>
         </is>
       </c>
-      <c r="C44" s="2" t="inlineStr">
+      <c r="C44" t="inlineStr">
         <is>
           <t>to</t>
         </is>
       </c>
-      <c r="D44" s="2" t="n">
+      <c r="D44" t="n">
         <v>8</v>
       </c>
-      <c r="E44" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F44" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G44" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H44" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I44" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J44" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K44" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L44" s="2" t="inlineStr">
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G44" t="b">
+        <v>1</v>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I44" t="b">
+        <v>1</v>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K44" t="b">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="2" t="n">
+      <c r="A45" t="n">
         <v>3</v>
       </c>
-      <c r="B45" s="2" t="inlineStr">
+      <c r="B45" t="inlineStr">
         <is>
           <t>Incompatible firmware version Go to Profile &gt; Settings to update firmware .</t>
         </is>
       </c>
-      <c r="C45" s="2" t="inlineStr">
+      <c r="C45" t="inlineStr">
         <is>
           <t>update</t>
         </is>
       </c>
-      <c r="D45" s="2" t="n">
+      <c r="D45" t="n">
         <v>9</v>
       </c>
-      <c r="E45" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F45" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G45" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H45" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I45" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J45" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K45" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L45" s="2" t="inlineStr">
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G45" t="b">
+        <v>1</v>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I45" t="b">
+        <v>1</v>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K45" t="b">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="2" t="n">
+      <c r="A46" t="n">
         <v>3</v>
       </c>
-      <c r="B46" s="2" t="inlineStr">
+      <c r="B46" t="inlineStr">
         <is>
           <t>Incompatible firmware version Go to Profile &gt; Settings to update firmware .</t>
         </is>
       </c>
-      <c r="C46" s="2" t="inlineStr">
+      <c r="C46" t="inlineStr">
         <is>
           <t>firmware</t>
         </is>
       </c>
-      <c r="D46" s="2" t="n">
+      <c r="D46" t="n">
         <v>10</v>
       </c>
-      <c r="E46" s="2" t="inlineStr">
+      <c r="E46" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F46" s="2" t="inlineStr">
+      <c r="F46" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="G46" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H46" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I46" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J46" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K46" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L46" s="2" t="inlineStr">
+      <c r="G46" t="b">
+        <v>1</v>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I46" t="b">
+        <v>1</v>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K46" t="b">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -4581,7 +4581,7 @@
       </c>
       <c r="F80" s="2" t="inlineStr">
         <is>
-          <t>B-NonEvent</t>
+          <t>O</t>
         </is>
       </c>
       <c r="G80" s="2" t="b">
@@ -4605,161 +4605,161 @@
       </c>
       <c r="L80" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Missed_E-Event</t>
         </is>
       </c>
     </row>
     <row r="81">
-      <c r="A81" t="n">
+      <c r="A81" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="B81" t="inlineStr">
+      <c r="B81" s="2" t="inlineStr">
         <is>
           <t>Strong Interference Now Fly with caution .</t>
         </is>
       </c>
-      <c r="C81" t="inlineStr">
+      <c r="C81" s="2" t="inlineStr">
         <is>
           <t>Fly</t>
         </is>
       </c>
-      <c r="D81" t="n">
+      <c r="D81" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="E81" t="inlineStr">
+      <c r="E81" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F81" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G81" t="b">
-        <v>1</v>
-      </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I81" t="b">
-        <v>1</v>
-      </c>
-      <c r="J81" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K81" t="b">
-        <v>1</v>
-      </c>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F81" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G81" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H81" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I81" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J81" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K81" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L81" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_B_as_I</t>
         </is>
       </c>
     </row>
     <row r="82">
-      <c r="A82" t="n">
+      <c r="A82" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="B82" t="inlineStr">
+      <c r="B82" s="2" t="inlineStr">
         <is>
           <t>Strong Interference Now Fly with caution .</t>
         </is>
       </c>
-      <c r="C82" t="inlineStr">
+      <c r="C82" s="2" t="inlineStr">
         <is>
           <t>with</t>
         </is>
       </c>
-      <c r="D82" t="n">
+      <c r="D82" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="E82" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F82" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G82" t="b">
-        <v>1</v>
-      </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I82" t="b">
-        <v>1</v>
-      </c>
-      <c r="J82" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K82" t="b">
-        <v>1</v>
-      </c>
-      <c r="L82" t="inlineStr">
+      <c r="E82" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F82" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G82" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H82" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I82" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J82" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K82" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L82" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="83">
-      <c r="A83" t="n">
+      <c r="A83" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="B83" t="inlineStr">
+      <c r="B83" s="2" t="inlineStr">
         <is>
           <t>Strong Interference Now Fly with caution .</t>
         </is>
       </c>
-      <c r="C83" t="inlineStr">
+      <c r="C83" s="2" t="inlineStr">
         <is>
           <t>caution</t>
         </is>
       </c>
-      <c r="D83" t="n">
+      <c r="D83" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="E83" t="inlineStr">
+      <c r="E83" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F83" t="inlineStr">
+      <c r="F83" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="G83" t="b">
-        <v>1</v>
-      </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I83" t="b">
-        <v>1</v>
-      </c>
-      <c r="J83" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K83" t="b">
-        <v>1</v>
-      </c>
-      <c r="L83" t="inlineStr">
+      <c r="G83" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H83" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I83" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J83" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K83" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L83" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -10642,158 +10642,158 @@
       </c>
     </row>
     <row r="197">
-      <c r="A197" s="2" t="n">
+      <c r="A197" t="n">
         <v>19</v>
       </c>
-      <c r="B197" s="2" t="inlineStr">
+      <c r="B197" t="inlineStr">
         <is>
           <t>Running Flight Simulator Restart aircraft to take off .</t>
         </is>
       </c>
-      <c r="C197" s="2" t="inlineStr">
+      <c r="C197" t="inlineStr">
         <is>
           <t>Running</t>
         </is>
       </c>
-      <c r="D197" s="2" t="n">
+      <c r="D197" t="n">
         <v>0</v>
       </c>
-      <c r="E197" s="2" t="inlineStr">
+      <c r="E197" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F197" s="2" t="inlineStr">
+      <c r="F197" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G197" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H197" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I197" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J197" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K197" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L197" s="2" t="inlineStr">
+      <c r="G197" t="b">
+        <v>1</v>
+      </c>
+      <c r="H197" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I197" t="b">
+        <v>1</v>
+      </c>
+      <c r="J197" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K197" t="b">
+        <v>1</v>
+      </c>
+      <c r="L197" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="198">
-      <c r="A198" s="2" t="n">
+      <c r="A198" t="n">
         <v>19</v>
       </c>
-      <c r="B198" s="2" t="inlineStr">
+      <c r="B198" t="inlineStr">
         <is>
           <t>Running Flight Simulator Restart aircraft to take off .</t>
         </is>
       </c>
-      <c r="C198" s="2" t="inlineStr">
+      <c r="C198" t="inlineStr">
         <is>
           <t>Flight</t>
         </is>
       </c>
-      <c r="D198" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E198" s="2" t="inlineStr">
+      <c r="D198" t="n">
+        <v>1</v>
+      </c>
+      <c r="E198" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F198" s="2" t="inlineStr">
+      <c r="F198" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G198" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H198" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I198" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J198" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K198" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L198" s="2" t="inlineStr">
+      <c r="G198" t="b">
+        <v>1</v>
+      </c>
+      <c r="H198" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I198" t="b">
+        <v>1</v>
+      </c>
+      <c r="J198" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K198" t="b">
+        <v>1</v>
+      </c>
+      <c r="L198" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="199">
-      <c r="A199" s="2" t="n">
+      <c r="A199" t="n">
         <v>19</v>
       </c>
-      <c r="B199" s="2" t="inlineStr">
+      <c r="B199" t="inlineStr">
         <is>
           <t>Running Flight Simulator Restart aircraft to take off .</t>
         </is>
       </c>
-      <c r="C199" s="2" t="inlineStr">
+      <c r="C199" t="inlineStr">
         <is>
           <t>Simulator</t>
         </is>
       </c>
-      <c r="D199" s="2" t="n">
+      <c r="D199" t="n">
         <v>2</v>
       </c>
-      <c r="E199" s="2" t="inlineStr">
+      <c r="E199" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F199" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G199" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H199" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I199" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J199" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K199" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L199" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_E_as_I</t>
+      <c r="F199" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G199" t="b">
+        <v>1</v>
+      </c>
+      <c r="H199" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I199" t="b">
+        <v>1</v>
+      </c>
+      <c r="J199" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K199" t="b">
+        <v>1</v>
+      </c>
+      <c r="L199" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -11289,7 +11289,7 @@
       </c>
       <c r="F209" s="2" t="inlineStr">
         <is>
-          <t>B-Event</t>
+          <t>B-NonEvent</t>
         </is>
       </c>
       <c r="G209" s="2" t="b">
@@ -11301,11 +11301,11 @@
         </is>
       </c>
       <c r="I209" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J209" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K209" s="2" t="b">
@@ -11313,7 +11313,7 @@
       </c>
       <c r="L209" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -11353,11 +11353,11 @@
         </is>
       </c>
       <c r="I210" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J210" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K210" s="2" t="b">
@@ -11405,11 +11405,11 @@
         </is>
       </c>
       <c r="I211" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J211" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K211" s="2" t="b">
@@ -11457,11 +11457,11 @@
         </is>
       </c>
       <c r="I212" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J212" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K212" s="2" t="b">
@@ -11509,11 +11509,11 @@
         </is>
       </c>
       <c r="I213" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J213" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K213" s="2" t="b">
@@ -11561,11 +11561,11 @@
         </is>
       </c>
       <c r="I214" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J214" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K214" s="2" t="b">
@@ -11613,11 +11613,11 @@
         </is>
       </c>
       <c r="I215" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J215" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K215" s="2" t="b">
@@ -11665,11 +11665,11 @@
         </is>
       </c>
       <c r="I216" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J216" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K216" s="2" t="b">
@@ -11717,11 +11717,11 @@
         </is>
       </c>
       <c r="I217" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J217" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K217" s="2" t="b">
@@ -11757,7 +11757,7 @@
       </c>
       <c r="F218" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G218" s="2" t="b">
@@ -11769,11 +11769,11 @@
         </is>
       </c>
       <c r="I218" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J218" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K218" s="2" t="b">
@@ -11781,7 +11781,7 @@
       </c>
       <c r="L218" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -11809,7 +11809,7 @@
       </c>
       <c r="F219" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G219" s="2" t="b">
@@ -11821,11 +11821,11 @@
         </is>
       </c>
       <c r="I219" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J219" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K219" s="2" t="b">
@@ -11833,7 +11833,7 @@
       </c>
       <c r="L219" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -11861,7 +11861,7 @@
       </c>
       <c r="F220" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G220" s="2" t="b">
@@ -11873,11 +11873,11 @@
         </is>
       </c>
       <c r="I220" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J220" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K220" s="2" t="b">
@@ -11885,7 +11885,7 @@
       </c>
       <c r="L220" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -11913,7 +11913,7 @@
       </c>
       <c r="F221" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G221" s="2" t="b">
@@ -11925,11 +11925,11 @@
         </is>
       </c>
       <c r="I221" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J221" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K221" s="2" t="b">
@@ -11937,7 +11937,7 @@
       </c>
       <c r="L221" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -11965,7 +11965,7 @@
       </c>
       <c r="F222" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G222" s="2" t="b">
@@ -11977,11 +11977,11 @@
         </is>
       </c>
       <c r="I222" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J222" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K222" s="2" t="b">
@@ -11989,7 +11989,7 @@
       </c>
       <c r="L222" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -12029,11 +12029,11 @@
         </is>
       </c>
       <c r="I223" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J223" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K223" s="2" t="b">
@@ -12069,7 +12069,7 @@
       </c>
       <c r="F224" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G224" s="2" t="b">
@@ -12081,11 +12081,11 @@
         </is>
       </c>
       <c r="I224" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J224" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K224" s="2" t="b">
@@ -12093,7 +12093,7 @@
       </c>
       <c r="L224" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -12121,7 +12121,7 @@
       </c>
       <c r="F225" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G225" s="2" t="b">
@@ -12133,11 +12133,11 @@
         </is>
       </c>
       <c r="I225" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J225" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K225" s="2" t="b">
@@ -12145,7 +12145,7 @@
       </c>
       <c r="L225" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -12173,7 +12173,7 @@
       </c>
       <c r="F226" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G226" s="2" t="b">
@@ -12185,11 +12185,11 @@
         </is>
       </c>
       <c r="I226" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J226" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K226" s="2" t="b">
@@ -12197,7 +12197,7 @@
       </c>
       <c r="L226" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -12225,7 +12225,7 @@
       </c>
       <c r="F227" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G227" s="2" t="b">
@@ -12237,11 +12237,11 @@
         </is>
       </c>
       <c r="I227" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J227" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K227" s="2" t="b">
@@ -12249,7 +12249,7 @@
       </c>
       <c r="L227" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -12289,11 +12289,11 @@
         </is>
       </c>
       <c r="I228" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J228" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K228" s="2" t="b">
@@ -18026,366 +18026,366 @@
       </c>
     </row>
     <row r="339">
-      <c r="A339" s="2" t="n">
+      <c r="A339" t="n">
         <v>30</v>
       </c>
-      <c r="B339" s="2" t="inlineStr">
+      <c r="B339" t="inlineStr">
         <is>
           <t>Unknown Error Cannot Takeoff Contact DJI support .</t>
         </is>
       </c>
-      <c r="C339" s="2" t="inlineStr">
+      <c r="C339" t="inlineStr">
         <is>
           <t>Unknown</t>
         </is>
       </c>
-      <c r="D339" s="2" t="n">
+      <c r="D339" t="n">
         <v>0</v>
       </c>
-      <c r="E339" s="2" t="inlineStr">
+      <c r="E339" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F339" s="2" t="inlineStr">
+      <c r="F339" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G339" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H339" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I339" s="2" t="b">
+      <c r="G339" t="b">
+        <v>1</v>
+      </c>
+      <c r="H339" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I339" t="b">
+        <v>1</v>
+      </c>
+      <c r="J339" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K339" t="b">
+        <v>1</v>
+      </c>
+      <c r="L339" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="n">
+        <v>30</v>
+      </c>
+      <c r="B340" t="inlineStr">
+        <is>
+          <t>Unknown Error Cannot Takeoff Contact DJI support .</t>
+        </is>
+      </c>
+      <c r="C340" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="D340" t="n">
+        <v>1</v>
+      </c>
+      <c r="E340" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="F340" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G340" t="b">
+        <v>1</v>
+      </c>
+      <c r="H340" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I340" t="b">
+        <v>1</v>
+      </c>
+      <c r="J340" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K340" t="b">
+        <v>1</v>
+      </c>
+      <c r="L340" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_E_as_I</t>
+        </is>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="n">
+        <v>30</v>
+      </c>
+      <c r="B341" t="inlineStr">
+        <is>
+          <t>Unknown Error Cannot Takeoff Contact DJI support .</t>
+        </is>
+      </c>
+      <c r="C341" t="inlineStr">
+        <is>
+          <t>Cannot</t>
+        </is>
+      </c>
+      <c r="D341" t="n">
+        <v>2</v>
+      </c>
+      <c r="E341" t="inlineStr">
+        <is>
+          <t>B-Event</t>
+        </is>
+      </c>
+      <c r="F341" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G341" t="b">
+        <v>1</v>
+      </c>
+      <c r="H341" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I341" t="b">
+        <v>1</v>
+      </c>
+      <c r="J341" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K341" t="b">
+        <v>1</v>
+      </c>
+      <c r="L341" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_B_as_I</t>
+        </is>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="n">
+        <v>30</v>
+      </c>
+      <c r="B342" t="inlineStr">
+        <is>
+          <t>Unknown Error Cannot Takeoff Contact DJI support .</t>
+        </is>
+      </c>
+      <c r="C342" t="inlineStr">
+        <is>
+          <t>Takeoff</t>
+        </is>
+      </c>
+      <c r="D342" t="n">
+        <v>3</v>
+      </c>
+      <c r="E342" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="F342" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G342" t="b">
+        <v>1</v>
+      </c>
+      <c r="H342" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I342" t="b">
+        <v>1</v>
+      </c>
+      <c r="J342" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K342" t="b">
+        <v>1</v>
+      </c>
+      <c r="L342" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_E_as_I</t>
+        </is>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B343" s="2" t="inlineStr">
+        <is>
+          <t>Unknown Error Cannot Takeoff Contact DJI support .</t>
+        </is>
+      </c>
+      <c r="C343" s="2" t="inlineStr">
+        <is>
+          <t>Contact</t>
+        </is>
+      </c>
+      <c r="D343" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="E343" s="2" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="F343" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G343" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H343" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I343" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J343" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K343" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="J339" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K339" s="2" t="b">
+      <c r="L343" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
+        </is>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B344" s="2" t="inlineStr">
+        <is>
+          <t>Unknown Error Cannot Takeoff Contact DJI support .</t>
+        </is>
+      </c>
+      <c r="C344" s="2" t="inlineStr">
+        <is>
+          <t>DJI</t>
+        </is>
+      </c>
+      <c r="D344" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="E344" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F344" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G344" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H344" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I344" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J344" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K344" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="L339" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="340">
-      <c r="A340" s="2" t="n">
+      <c r="L344" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
+        </is>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" s="2" t="n">
         <v>30</v>
       </c>
-      <c r="B340" s="2" t="inlineStr">
+      <c r="B345" s="2" t="inlineStr">
         <is>
           <t>Unknown Error Cannot Takeoff Contact DJI support .</t>
         </is>
       </c>
-      <c r="C340" s="2" t="inlineStr">
-        <is>
-          <t>Error</t>
-        </is>
-      </c>
-      <c r="D340" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E340" s="2" t="inlineStr">
+      <c r="C345" s="2" t="inlineStr">
+        <is>
+          <t>support</t>
+        </is>
+      </c>
+      <c r="D345" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="E345" s="2" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="F345" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F340" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G340" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H340" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I340" s="2" t="b">
+      <c r="G345" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H345" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I345" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J345" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K345" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="J340" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K340" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L340" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_E_as_I</t>
-        </is>
-      </c>
-    </row>
-    <row r="341">
-      <c r="A341" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="B341" s="2" t="inlineStr">
-        <is>
-          <t>Unknown Error Cannot Takeoff Contact DJI support .</t>
-        </is>
-      </c>
-      <c r="C341" s="2" t="inlineStr">
-        <is>
-          <t>Cannot</t>
-        </is>
-      </c>
-      <c r="D341" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="E341" s="2" t="inlineStr">
-        <is>
-          <t>B-Event</t>
-        </is>
-      </c>
-      <c r="F341" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G341" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H341" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I341" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J341" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K341" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L341" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_B_as_I</t>
-        </is>
-      </c>
-    </row>
-    <row r="342">
-      <c r="A342" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="B342" s="2" t="inlineStr">
-        <is>
-          <t>Unknown Error Cannot Takeoff Contact DJI support .</t>
-        </is>
-      </c>
-      <c r="C342" s="2" t="inlineStr">
-        <is>
-          <t>Takeoff</t>
-        </is>
-      </c>
-      <c r="D342" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="E342" s="2" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="F342" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G342" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H342" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I342" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J342" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K342" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L342" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_E_as_I</t>
-        </is>
-      </c>
-    </row>
-    <row r="343">
-      <c r="A343" t="n">
-        <v>30</v>
-      </c>
-      <c r="B343" t="inlineStr">
-        <is>
-          <t>Unknown Error Cannot Takeoff Contact DJI support .</t>
-        </is>
-      </c>
-      <c r="C343" t="inlineStr">
-        <is>
-          <t>Contact</t>
-        </is>
-      </c>
-      <c r="D343" t="n">
-        <v>4</v>
-      </c>
-      <c r="E343" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="F343" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G343" t="b">
-        <v>1</v>
-      </c>
-      <c r="H343" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I343" t="b">
-        <v>1</v>
-      </c>
-      <c r="J343" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K343" t="b">
-        <v>1</v>
-      </c>
-      <c r="L343" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="344">
-      <c r="A344" t="n">
-        <v>30</v>
-      </c>
-      <c r="B344" t="inlineStr">
-        <is>
-          <t>Unknown Error Cannot Takeoff Contact DJI support .</t>
-        </is>
-      </c>
-      <c r="C344" t="inlineStr">
-        <is>
-          <t>DJI</t>
-        </is>
-      </c>
-      <c r="D344" t="n">
-        <v>5</v>
-      </c>
-      <c r="E344" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F344" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G344" t="b">
-        <v>1</v>
-      </c>
-      <c r="H344" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I344" t="b">
-        <v>1</v>
-      </c>
-      <c r="J344" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K344" t="b">
-        <v>1</v>
-      </c>
-      <c r="L344" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="345">
-      <c r="A345" t="n">
-        <v>30</v>
-      </c>
-      <c r="B345" t="inlineStr">
-        <is>
-          <t>Unknown Error Cannot Takeoff Contact DJI support .</t>
-        </is>
-      </c>
-      <c r="C345" t="inlineStr">
-        <is>
-          <t>support</t>
-        </is>
-      </c>
-      <c r="D345" t="n">
-        <v>6</v>
-      </c>
-      <c r="E345" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="F345" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G345" t="b">
-        <v>1</v>
-      </c>
-      <c r="H345" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I345" t="b">
-        <v>1</v>
-      </c>
-      <c r="J345" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K345" t="b">
-        <v>1</v>
-      </c>
-      <c r="L345" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="L345" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -25878,366 +25878,366 @@
       </c>
     </row>
     <row r="490">
-      <c r="A490" t="n">
+      <c r="A490" s="2" t="n">
         <v>45</v>
       </c>
-      <c r="B490" t="inlineStr">
+      <c r="B490" s="2" t="inlineStr">
         <is>
           <t>SD card write speed is too slow Not suitable for shooting a 4K video .</t>
         </is>
       </c>
-      <c r="C490" t="inlineStr">
+      <c r="C490" s="2" t="inlineStr">
         <is>
           <t>Not</t>
         </is>
       </c>
-      <c r="D490" t="n">
+      <c r="D490" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="E490" t="inlineStr">
+      <c r="E490" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F490" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G490" t="b">
-        <v>1</v>
-      </c>
-      <c r="H490" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I490" t="b">
-        <v>1</v>
-      </c>
-      <c r="J490" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K490" t="b">
-        <v>1</v>
-      </c>
-      <c r="L490" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F490" s="2" t="inlineStr">
+        <is>
+          <t>B-Event</t>
+        </is>
+      </c>
+      <c r="G490" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H490" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I490" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J490" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K490" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L490" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="491">
-      <c r="A491" t="n">
+      <c r="A491" s="2" t="n">
         <v>45</v>
       </c>
-      <c r="B491" t="inlineStr">
+      <c r="B491" s="2" t="inlineStr">
         <is>
           <t>SD card write speed is too slow Not suitable for shooting a 4K video .</t>
         </is>
       </c>
-      <c r="C491" t="inlineStr">
+      <c r="C491" s="2" t="inlineStr">
         <is>
           <t>suitable</t>
         </is>
       </c>
-      <c r="D491" t="n">
+      <c r="D491" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="E491" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F491" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G491" t="b">
-        <v>1</v>
-      </c>
-      <c r="H491" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I491" t="b">
-        <v>1</v>
-      </c>
-      <c r="J491" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K491" t="b">
-        <v>1</v>
-      </c>
-      <c r="L491" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E491" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F491" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G491" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H491" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I491" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J491" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K491" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L491" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="492">
-      <c r="A492" t="n">
+      <c r="A492" s="2" t="n">
         <v>45</v>
       </c>
-      <c r="B492" t="inlineStr">
+      <c r="B492" s="2" t="inlineStr">
         <is>
           <t>SD card write speed is too slow Not suitable for shooting a 4K video .</t>
         </is>
       </c>
-      <c r="C492" t="inlineStr">
+      <c r="C492" s="2" t="inlineStr">
         <is>
           <t>for</t>
         </is>
       </c>
-      <c r="D492" t="n">
+      <c r="D492" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="E492" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F492" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G492" t="b">
-        <v>1</v>
-      </c>
-      <c r="H492" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I492" t="b">
-        <v>1</v>
-      </c>
-      <c r="J492" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K492" t="b">
-        <v>1</v>
-      </c>
-      <c r="L492" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E492" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F492" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G492" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H492" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I492" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J492" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K492" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L492" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="493">
-      <c r="A493" t="n">
+      <c r="A493" s="2" t="n">
         <v>45</v>
       </c>
-      <c r="B493" t="inlineStr">
+      <c r="B493" s="2" t="inlineStr">
         <is>
           <t>SD card write speed is too slow Not suitable for shooting a 4K video .</t>
         </is>
       </c>
-      <c r="C493" t="inlineStr">
+      <c r="C493" s="2" t="inlineStr">
         <is>
           <t>shooting</t>
         </is>
       </c>
-      <c r="D493" t="n">
+      <c r="D493" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="E493" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F493" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G493" t="b">
-        <v>1</v>
-      </c>
-      <c r="H493" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I493" t="b">
-        <v>1</v>
-      </c>
-      <c r="J493" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K493" t="b">
-        <v>1</v>
-      </c>
-      <c r="L493" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E493" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F493" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G493" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H493" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I493" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J493" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K493" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L493" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="494">
-      <c r="A494" t="n">
+      <c r="A494" s="2" t="n">
         <v>45</v>
       </c>
-      <c r="B494" t="inlineStr">
+      <c r="B494" s="2" t="inlineStr">
         <is>
           <t>SD card write speed is too slow Not suitable for shooting a 4K video .</t>
         </is>
       </c>
-      <c r="C494" t="inlineStr">
+      <c r="C494" s="2" t="inlineStr">
         <is>
           <t>a</t>
         </is>
       </c>
-      <c r="D494" t="n">
+      <c r="D494" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="E494" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F494" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G494" t="b">
-        <v>1</v>
-      </c>
-      <c r="H494" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I494" t="b">
-        <v>1</v>
-      </c>
-      <c r="J494" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K494" t="b">
-        <v>1</v>
-      </c>
-      <c r="L494" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E494" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F494" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G494" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H494" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I494" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J494" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K494" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L494" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="495">
-      <c r="A495" t="n">
+      <c r="A495" s="2" t="n">
         <v>45</v>
       </c>
-      <c r="B495" t="inlineStr">
+      <c r="B495" s="2" t="inlineStr">
         <is>
           <t>SD card write speed is too slow Not suitable for shooting a 4K video .</t>
         </is>
       </c>
-      <c r="C495" t="inlineStr">
+      <c r="C495" s="2" t="inlineStr">
         <is>
           <t>4K</t>
         </is>
       </c>
-      <c r="D495" t="n">
+      <c r="D495" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="E495" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F495" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G495" t="b">
-        <v>1</v>
-      </c>
-      <c r="H495" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I495" t="b">
-        <v>1</v>
-      </c>
-      <c r="J495" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K495" t="b">
-        <v>1</v>
-      </c>
-      <c r="L495" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E495" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F495" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G495" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H495" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I495" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J495" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K495" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L495" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="496">
-      <c r="A496" t="n">
+      <c r="A496" s="2" t="n">
         <v>45</v>
       </c>
-      <c r="B496" t="inlineStr">
+      <c r="B496" s="2" t="inlineStr">
         <is>
           <t>SD card write speed is too slow Not suitable for shooting a 4K video .</t>
         </is>
       </c>
-      <c r="C496" t="inlineStr">
+      <c r="C496" s="2" t="inlineStr">
         <is>
           <t>video</t>
         </is>
       </c>
-      <c r="D496" t="n">
+      <c r="D496" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="E496" t="inlineStr">
+      <c r="E496" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F496" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G496" t="b">
-        <v>1</v>
-      </c>
-      <c r="H496" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I496" t="b">
-        <v>1</v>
-      </c>
-      <c r="J496" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K496" t="b">
-        <v>1</v>
-      </c>
-      <c r="L496" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F496" s="2" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G496" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H496" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I496" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J496" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K496" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L496" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
